--- a/data_year/zb/教育/中等职业学校(机构)学生分科类情况/中等职业学校(机构)学生分科类获得职业资格证书毕业生数.xlsx
+++ b/data_year/zb/教育/中等职业学校(机构)学生分科类情况/中等职业学校(机构)学生分科类获得职业资格证书毕业生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,732 +523,480 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.0958</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>15.2335</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9521</v>
+      </c>
       <c r="E2" t="n">
-        <v>43.6071</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>87.0967</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.1836</v>
+      </c>
       <c r="G2" t="n">
-        <v>7.749</v>
+        <v>12.4565</v>
       </c>
       <c r="H2" t="n">
-        <v>20.231</v>
+        <v>92.5115</v>
       </c>
       <c r="I2" t="n">
-        <v>9.0176</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>16.1472</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.1079</v>
+      </c>
       <c r="K2" t="n">
-        <v>3.7081</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+        <v>9.082100000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.2573</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.3439</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12.8738</v>
+      </c>
       <c r="O2" t="n">
-        <v>0.715</v>
+        <v>2.283</v>
       </c>
       <c r="P2" t="n">
-        <v>151.3555</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>342.0318</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>39.2009</v>
+      </c>
       <c r="R2" t="n">
-        <v>0.8356</v>
+        <v>2.7987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.3302</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>16.9349</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7313</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1261</v>
+      </c>
       <c r="E3" t="n">
-        <v>55.4442</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>83.10429999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.4693</v>
+      </c>
       <c r="G3" t="n">
-        <v>8.930099999999999</v>
+        <v>18.4656</v>
       </c>
       <c r="H3" t="n">
-        <v>30.2292</v>
+        <v>83.3267</v>
       </c>
       <c r="I3" t="n">
-        <v>9.081</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>17.9303</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.133</v>
+      </c>
       <c r="K3" t="n">
-        <v>3.9443</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+        <v>9.2935</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.7587</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.1098</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.4294</v>
+      </c>
       <c r="O3" t="n">
-        <v>0.8296</v>
+        <v>2.205</v>
       </c>
       <c r="P3" t="n">
-        <v>186.4778</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>338.4287</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40.1571</v>
+      </c>
       <c r="R3" t="n">
-        <v>0.9432</v>
+        <v>2.2605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.8272</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>21.9221</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.2857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.7406</v>
+      </c>
       <c r="E4" t="n">
-        <v>65.0551</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>78.5308</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.6739</v>
+      </c>
       <c r="G4" t="n">
-        <v>9.513</v>
+        <v>28.108</v>
       </c>
       <c r="H4" t="n">
-        <v>43.6561</v>
+        <v>70.0805</v>
       </c>
       <c r="I4" t="n">
-        <v>9.616199999999999</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>23.186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.0807</v>
+      </c>
       <c r="K4" t="n">
-        <v>5.3143</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+        <v>10.3482</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19.834</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15.0245</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16.436</v>
+      </c>
       <c r="O4" t="n">
-        <v>1.1387</v>
+        <v>1.9102</v>
       </c>
       <c r="P4" t="n">
-        <v>220.0018</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+        <v>348.3872</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>39.3229</v>
+      </c>
       <c r="R4" t="n">
-        <v>1.0664</v>
+        <v>2.3394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.5823</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>27.3548</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0132</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.314</v>
+      </c>
       <c r="E5" t="n">
-        <v>72.2192</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>84.0227</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.9224</v>
+      </c>
       <c r="G5" t="n">
-        <v>9.742800000000001</v>
+        <v>54.4841</v>
       </c>
       <c r="H5" t="n">
-        <v>60.8071</v>
+        <v>77.3784</v>
       </c>
       <c r="I5" t="n">
-        <v>10.3911</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>30.9022</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.5887</v>
+      </c>
       <c r="K5" t="n">
-        <v>5.5024</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+        <v>14.0428</v>
+      </c>
+      <c r="L5" t="n">
+        <v>29.5739</v>
+      </c>
+      <c r="M5" t="n">
+        <v>18.9396</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18.7459</v>
+      </c>
       <c r="O5" t="n">
-        <v>1.8139</v>
+        <v>2.3213</v>
       </c>
       <c r="P5" t="n">
-        <v>253.5815</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+        <v>433.6937</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>48.0596</v>
+      </c>
       <c r="R5" t="n">
-        <v>1.7087</v>
+        <v>3.5561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.210699999999999</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>27.6981</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.8905</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.1961</v>
+      </c>
       <c r="E6" t="n">
-        <v>79.3515</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>74.2863</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.4528</v>
+      </c>
       <c r="G6" t="n">
-        <v>10.045</v>
+        <v>44.9566</v>
       </c>
       <c r="H6" t="n">
-        <v>73.35590000000001</v>
+        <v>69.7743</v>
       </c>
       <c r="I6" t="n">
-        <v>11.8549</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>28.4019</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.5854</v>
+      </c>
       <c r="K6" t="n">
-        <v>7.1161</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+        <v>16.7524</v>
+      </c>
+      <c r="L6" t="n">
+        <v>37.019</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18.0086</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17.3236</v>
+      </c>
       <c r="O6" t="n">
-        <v>1.8776</v>
+        <v>2.0262</v>
       </c>
       <c r="P6" t="n">
-        <v>281.9264</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+        <v>403.2975</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>42.7803</v>
+      </c>
       <c r="R6" t="n">
-        <v>2.5105</v>
+        <v>2.7962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.3096</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>29.8141</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.9618</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.6124</v>
+      </c>
       <c r="E7" t="n">
-        <v>84.26860000000001</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>67.36750000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.981</v>
+      </c>
       <c r="G7" t="n">
-        <v>10.6403</v>
+        <v>39.6586</v>
       </c>
       <c r="H7" t="n">
-        <v>88.3092</v>
+        <v>60.8863</v>
       </c>
       <c r="I7" t="n">
-        <v>14.2534</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>31.3538</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.1896</v>
+      </c>
       <c r="K7" t="n">
-        <v>7.9173</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+        <v>16.1698</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38.0171</v>
+      </c>
+      <c r="M7" t="n">
+        <v>16.8357</v>
+      </c>
+      <c r="N7" t="n">
+        <v>18.296</v>
+      </c>
       <c r="O7" t="n">
-        <v>2.2673</v>
+        <v>1.7162</v>
       </c>
       <c r="P7" t="n">
-        <v>313.126</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>381.3336</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>39.3593</v>
+      </c>
       <c r="R7" t="n">
-        <v>2.5775</v>
+        <v>2.8599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.2335</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6716</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.9521</v>
-      </c>
-      <c r="E8" t="n">
-        <v>87.0967</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.1836</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12.4565</v>
-      </c>
-      <c r="H8" t="n">
-        <v>92.5115</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16.1472</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.1079</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.082100000000001</v>
-      </c>
-      <c r="L8" t="n">
-        <v>13.2573</v>
-      </c>
-      <c r="M8" t="n">
-        <v>17.3439</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12.8738</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.283</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>342.0318</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>39.2009</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.7987</v>
-      </c>
+        <v>354.7673</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>16.9349</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7313</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.1261</v>
-      </c>
-      <c r="E9" t="n">
-        <v>83.10429999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.4693</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18.4656</v>
-      </c>
-      <c r="H9" t="n">
-        <v>83.3267</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17.9303</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.133</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.2935</v>
-      </c>
-      <c r="L9" t="n">
-        <v>15.7587</v>
-      </c>
-      <c r="M9" t="n">
-        <v>15.1098</v>
-      </c>
-      <c r="N9" t="n">
-        <v>14.4294</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.205</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>338.4287</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>40.1571</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.2605</v>
-      </c>
+        <v>321.8321</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>21.9221</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.2857</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.7406</v>
-      </c>
-      <c r="E10" t="n">
-        <v>78.5308</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.6739</v>
-      </c>
-      <c r="G10" t="n">
-        <v>28.108</v>
-      </c>
-      <c r="H10" t="n">
-        <v>70.0805</v>
-      </c>
-      <c r="I10" t="n">
-        <v>23.186</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.0807</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.3482</v>
-      </c>
-      <c r="L10" t="n">
-        <v>19.834</v>
-      </c>
-      <c r="M10" t="n">
-        <v>15.0245</v>
-      </c>
-      <c r="N10" t="n">
-        <v>16.436</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.9102</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>348.3872</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>39.3229</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.3394</v>
-      </c>
+        <v>299.7739</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>27.3548</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0132</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.314</v>
-      </c>
-      <c r="E11" t="n">
-        <v>84.0227</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.9224</v>
-      </c>
-      <c r="G11" t="n">
-        <v>54.4841</v>
-      </c>
-      <c r="H11" t="n">
-        <v>77.3784</v>
-      </c>
-      <c r="I11" t="n">
-        <v>30.9022</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.5887</v>
-      </c>
-      <c r="K11" t="n">
-        <v>14.0428</v>
-      </c>
-      <c r="L11" t="n">
-        <v>29.5739</v>
-      </c>
-      <c r="M11" t="n">
-        <v>18.9396</v>
-      </c>
-      <c r="N11" t="n">
-        <v>18.7459</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.3213</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>433.6937</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>48.0596</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3.5561</v>
-      </c>
+        <v>283.9511</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.6981</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.8905</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.1961</v>
-      </c>
-      <c r="E12" t="n">
-        <v>74.2863</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.4528</v>
-      </c>
-      <c r="G12" t="n">
-        <v>44.9566</v>
-      </c>
-      <c r="H12" t="n">
-        <v>69.7743</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28.4019</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.5854</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16.7524</v>
-      </c>
-      <c r="L12" t="n">
-        <v>37.019</v>
-      </c>
-      <c r="M12" t="n">
-        <v>18.0086</v>
-      </c>
-      <c r="N12" t="n">
-        <v>17.3236</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.0262</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>403.2975</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>42.7803</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.7962</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.8141</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.9618</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.6124</v>
-      </c>
-      <c r="E13" t="n">
-        <v>67.36750000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.981</v>
-      </c>
-      <c r="G13" t="n">
-        <v>39.6586</v>
-      </c>
-      <c r="H13" t="n">
-        <v>60.8863</v>
-      </c>
-      <c r="I13" t="n">
-        <v>31.3538</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.1896</v>
-      </c>
-      <c r="K13" t="n">
-        <v>16.1698</v>
-      </c>
-      <c r="L13" t="n">
-        <v>38.0171</v>
-      </c>
-      <c r="M13" t="n">
-        <v>16.8357</v>
-      </c>
-      <c r="N13" t="n">
-        <v>18.296</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.7162</v>
-      </c>
-      <c r="P13" t="n">
-        <v>381.3336</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>39.3593</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.8599</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>354.7673</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>321.8321</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>299.7739</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>283.9511</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
         <v>257.9124</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
